--- a/Deseq2/SRP009251 - Leishmania/results/DESeq2_UpDown_DEGs.xlsx
+++ b/Deseq2/SRP009251 - Leishmania/results/DESeq2_UpDown_DEGs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">baseMean</t>
   </si>
@@ -36,19 +36,37 @@
     <t xml:space="preserve">Entrez_ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Gene_Symbol</t>
+  </si>
+  <si>
     <t xml:space="preserve">479</t>
   </si>
   <si>
+    <t xml:space="preserve">ATP12A</t>
+  </si>
+  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
+    <t xml:space="preserve">SERPINA3</t>
+  </si>
+  <si>
     <t xml:space="preserve">9572</t>
   </si>
   <si>
+    <t xml:space="preserve">NR1D1</t>
+  </si>
+  <si>
     <t xml:space="preserve">53822</t>
   </si>
   <si>
+    <t xml:space="preserve">FXYD7</t>
+  </si>
+  <si>
     <t xml:space="preserve">102723508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KANTR</t>
   </si>
 </sst>
 </file>
@@ -402,6 +420,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -423,7 +444,10 @@
         <v>0.0309879787247054</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +470,10 @@
         <v>0.0361889878544249</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -485,6 +512,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -506,7 +536,10 @@
         <v>0.0361889878544249</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +562,10 @@
         <v>0.0309879787247054</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +588,10 @@
         <v>0.0309879787247054</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
